--- a/medicine/Enfance/Charles_Kingsley/Charles_Kingsley.xlsx
+++ b/medicine/Enfance/Charles_Kingsley/Charles_Kingsley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Kingsley, né le 12 juin 1819, à Holne, dans le Devon, et mort le 23 janvier 1875, à Eversley, dans le Hampshire, est un écrivain britannique et un prêtre anglican, associé au West Country.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du révérend Charles Kingsley, il amorce ses études supérieures au King's College de Londres avant de s'inscrire en 1838 au Magdalene College de l'université de Cambridge, où il obtient un baccalauréat en 1842 et une maîtrise en 1860.
-Dès 1842, il décide de consacrer sa vie à un ministère au sein de l'église. En 1844, il devient recteur du village de Eversley dans le Hampshire. En 1859, il est nommé chapelain de la reine Victoria et, en 1861, tuteur du futur Édouard VII. Il doit sa notoriété à la publication de sermons, des romans historiques ou industriels et d'ouvrages de littérature d'enfance et de jeunesse, notamment The Water-Babies, A Fairy Tale for a Land Baby (1863), un classique de la littérature britannique[1].
+Dès 1842, il décide de consacrer sa vie à un ministère au sein de l'église. En 1844, il devient recteur du village de Eversley dans le Hampshire. En 1859, il est nommé chapelain de la reine Victoria et, en 1861, tuteur du futur Édouard VII. Il doit sa notoriété à la publication de sermons, des romans historiques ou industriels et d'ouvrages de littérature d'enfance et de jeunesse, notamment The Water-Babies, A Fairy Tale for a Land Baby (1863), un classique de la littérature britannique.
 En dépit de sa conception morale religieuse, il fait preuve d'ouverture d'esprit en acceptant la thèse de l'évolution développée par Charles Darwin dans L'Origine des espèces (On the Origin of Species), publié en 1859.
 Farouche opposant à l'Église catholique, il fait preuve de racisme dans une lettre envoyée à sa femme depuis l'Irlande, où il compare les catholiques irlandais à des chimpanzés blancs.
 </t>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Saint's Tragedy, théâtre (1848)
 Alton Locke, roman industriel (1849) Publié en français sous le titre Alton Locke, tailleur &amp; poète, Paris, J. Hetżel et A. Lacroix, 1864 (BNF 30681933)
